--- a/data/taxa_per_stage_raw_sqs.xlsx
+++ b/data/taxa_per_stage_raw_sqs.xlsx
@@ -365,17 +365,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mean_dif</t>
+          <t>mean_div</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>min_dif</t>
+          <t>min_div</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>max_dif</t>
+          <t>max_div</t>
         </is>
       </c>
     </row>
